--- a/tables/Issue.xlsx
+++ b/tables/Issue.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>序号</t>
   </si>
@@ -178,6 +178,40 @@
   </si>
   <si>
     <t>这房间沾满鲜血，天花滴血、墙身渗血、家具浸血。鲜血流至你的脚边……眨眼间全消失不见。</t>
+  </si>
+  <si>
+    <r>
+      <t>考验I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>xamID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -523,11 +557,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -538,7 +572,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -557,8 +591,11 @@
       <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -577,8 +614,11 @@
       <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -597,8 +637,11 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -614,8 +657,11 @@
       <c r="E4" s="1">
         <v>2</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -630,6 +676,9 @@
       </c>
       <c r="E5" s="1">
         <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
